--- a/ultrasonic_audio_amplifier/Ultrasonic Audio Amplifier Board BOM.xlsx
+++ b/ultrasonic_audio_amplifier/Ultrasonic Audio Amplifier Board BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARVP\au_hardware\ultrasonic_audio_amplifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC75EE1-73A8-4B86-9D0C-EB5B35AE6F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9682DBD8-09F3-4DA8-B8BC-28435DF95F8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="156" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{EDE76F2C-8845-47CA-8C89-1E3357B64CC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDE76F2C-8845-47CA-8C89-1E3357B64CC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
   <si>
     <t>Shematic Reference Number</t>
   </si>
@@ -107,30 +107,9 @@
     <t>FKP2F001501D00JSC9</t>
   </si>
   <si>
-    <t>399-16958-ND</t>
-  </si>
-  <si>
-    <t>CAP FILM 5UF 5% 800VDC RADIAL</t>
-  </si>
-  <si>
-    <t>https://api.kemet.com/component-edge/download/specsheet/C4AQIBU4500A1YJ.pdf</t>
-  </si>
-  <si>
     <t>C4, C6</t>
   </si>
   <si>
-    <t>P12158-ND</t>
-  </si>
-  <si>
-    <t>CAP FILM 0.1UF 5% 630VDC RADIAL</t>
-  </si>
-  <si>
-    <t>ECW-F6104JL</t>
-  </si>
-  <si>
-    <t>https://industrial.panasonic.com/ww/products/capacitors/film-capacitors/film-cap-electroequip/models/ECWF6104JL</t>
-  </si>
-  <si>
     <t>1276-2619-1-ND‎</t>
   </si>
   <si>
@@ -329,18 +308,6 @@
     <t>https://datasheets.maximintegrated.com/en/ds/DS1881.pdf</t>
   </si>
   <si>
-    <t>HS410-ND</t>
-  </si>
-  <si>
-    <t>BOARD LEVEL HEATSINK 1.95" TO220</t>
-  </si>
-  <si>
-    <t>7023B-MTG</t>
-  </si>
-  <si>
-    <t>https://www.boydcorp.com/aavid-datasheets/Board-Level-Cooling-Channel-7023.pdf</t>
-  </si>
-  <si>
     <t>LM384N/NOPB-ND</t>
   </si>
   <si>
@@ -374,7 +341,46 @@
     <t>Cart Share</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/short/z957nb</t>
+    <t>490-12753-2-ND</t>
+  </si>
+  <si>
+    <t>GRM219R61E475KA73D</t>
+  </si>
+  <si>
+    <t>CAP CER 4.7UF 10% 25V X5R 0805</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/short/zbdm1r</t>
+  </si>
+  <si>
+    <t>AE11381-ND</t>
+  </si>
+  <si>
+    <t>V2032B</t>
+  </si>
+  <si>
+    <t>http://www.assmann-wsw.com/fileadmin/datasheets/ASS_0815_HS.pdf</t>
+  </si>
+  <si>
+    <t>HEATSINK CPU FORGED</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM219R61E475KA73-01.pdf</t>
+  </si>
+  <si>
+    <t>1276-1003-2-ND</t>
+  </si>
+  <si>
+    <t>CL21B104KBCNNNC</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 50V X7R 0805</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Samsung%20PDFs/CL21B104KBCNNN_Spec.pdf</t>
   </si>
 </sst>
 </file>
@@ -764,10 +770,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9E8BD2-CF4A-47DA-99CA-B18F63A61030}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,6 +782,7 @@
     <col min="2" max="3" width="26.88671875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="16.44140625" customWidth="1"/>
   </cols>
@@ -821,7 +828,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -854,7 +861,7 @@
         <v>0.64</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -892,19 +899,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="F5" s="4">
-        <v>3.1</v>
+        <v>0.44</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -914,27 +921,27 @@
       </c>
       <c r="J5" s="3">
         <f t="shared" si="0"/>
-        <v>3.1</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="F6" s="4">
-        <v>1.96</v>
+        <v>0.15</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -944,7 +951,7 @@
       </c>
       <c r="J6" s="3">
         <f t="shared" si="0"/>
-        <v>3.92</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -952,16 +959,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F7" s="4">
         <v>0.15</v>
@@ -982,16 +989,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F8" s="4">
         <v>0.3</v>
@@ -1009,19 +1016,19 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F9" s="4">
         <v>0.24</v>
@@ -1039,26 +1046,26 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F11" s="4">
         <v>0.16</v>
@@ -1076,19 +1083,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F12" s="4">
         <v>0.16</v>
@@ -1106,19 +1113,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F13" s="4">
         <v>0.16</v>
@@ -1136,19 +1143,19 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F14" s="4">
         <v>0.16</v>
@@ -1166,26 +1173,26 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F15" s="4"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D16" s="5">
         <v>39281023</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F16" s="4">
         <v>0.8</v>
@@ -1201,21 +1208,21 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F17" s="4">
         <v>1.85</v>
@@ -1231,21 +1238,21 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F18" s="4">
         <v>1.48</v>
@@ -1261,21 +1268,21 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F19" s="4">
         <v>0.33</v>
@@ -1291,21 +1298,21 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F20" s="4">
         <v>0.66</v>
@@ -1321,27 +1328,27 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F22" s="4">
         <v>3.21</v>
@@ -1358,21 +1365,21 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
         <v>93</v>
       </c>
-      <c r="B23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" t="s">
-        <v>104</v>
-      </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F23" s="4">
         <v>3.07</v>
@@ -1388,51 +1395,51 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="0"/>
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
         <v>99</v>
       </c>
-      <c r="C24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E25" t="s">
         <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="4">
-        <v>2.08</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <f t="shared" si="0"/>
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" t="s">
-        <v>111</v>
       </c>
       <c r="F25" s="4">
         <v>1.27</v>
@@ -1446,6 +1453,13 @@
       <c r="J25" s="3">
         <f t="shared" si="0"/>
         <v>1.27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>105</v>
+      </c>
+      <c r="L25">
+        <f>SUM(J:J)</f>
+        <v>21.97</v>
       </c>
     </row>
   </sheetData>
